--- a/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Estudios-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.3901451376848198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.3656834515628342</v>
+        <v>0.3656834515628343</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.3523211592770923</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.272292123082787</v>
+        <v>0.270064168801802</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.245807310617366</v>
+        <v>0.2498052291156125</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3571984375296258</v>
+        <v>0.3622528372937385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.339926329897639</v>
+        <v>0.3408962534622211</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.3293946274142813</v>
+        <v>0.3291519727038423</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3116142794721247</v>
+        <v>0.3107176658067249</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.334861555524016</v>
+        <v>0.3340978474099182</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3168841662413814</v>
+        <v>0.3228903355419374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4224297766961835</v>
+        <v>0.4226512907514151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3917498477964694</v>
+        <v>0.3921073402019823</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3748467859357429</v>
+        <v>0.3750904972567575</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3532420223163568</v>
+        <v>0.3518891084102524</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1466823603400687</v>
+        <v>0.1465682165787785</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.09824335123392082</v>
+        <v>0.09681239934322922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1776420066345297</v>
+        <v>0.1779405682333594</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1181066641962606</v>
+        <v>0.1184257605831455</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1659363392362992</v>
+        <v>0.1656615785461334</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1111742769633438</v>
+        <v>0.1111817651935663</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1800221915802036</v>
+        <v>0.1785038131652369</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1247379049508177</v>
+        <v>0.1240475826539583</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2128202529636632</v>
+        <v>0.2147587661376847</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1437154630483585</v>
+        <v>0.1427716702723887</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1915849342037204</v>
+        <v>0.1917805567573354</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1292271028001138</v>
+        <v>0.1302139261076505</v>
       </c>
     </row>
     <row r="10">
@@ -776,19 +776,19 @@
         <v>0.112325381977708</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.0897754758412888</v>
+        <v>0.08977547584128881</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.09094593251301723</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08401903332001782</v>
+        <v>0.08401903332001784</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.1016259387590315</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.086853724175518</v>
+        <v>0.08685372417551801</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.085829426915621</v>
+        <v>0.08464216970493453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0679808444838014</v>
+        <v>0.06924285439058038</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.06558361452507509</v>
+        <v>0.06674025484652782</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06668477410797158</v>
+        <v>0.06865029185774067</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.08434080336488177</v>
+        <v>0.08356249297731193</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07299748029705599</v>
+        <v>0.0729075479383106</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1433891029119402</v>
+        <v>0.1424885083468661</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1136796432530543</v>
+        <v>0.1126193316821659</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1180406613288979</v>
+        <v>0.1190640812113282</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1041653778167931</v>
+        <v>0.105473666955353</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1228034692014805</v>
+        <v>0.1225001821888988</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1043491826777438</v>
+        <v>0.101160613935672</v>
       </c>
     </row>
     <row r="13">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1724380008726537</v>
+        <v>0.1734252637078099</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1229337950072074</v>
+        <v>0.1228950081633187</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2196090000996944</v>
+        <v>0.2203151116834405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1629537595577935</v>
+        <v>0.1633751943179901</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2015328596233324</v>
+        <v>0.2000690979435608</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1462856881231814</v>
+        <v>0.1467922845880305</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2000265951235393</v>
+        <v>0.1997267309289495</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1461954670348411</v>
+        <v>0.1459129870446588</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2491016797642617</v>
+        <v>0.2501213469233111</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.184003768453761</v>
+        <v>0.1835097792163149</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2212635633722896</v>
+        <v>0.2197014114920817</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1617605222989026</v>
+        <v>0.1621712901991991</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>204827</v>
+        <v>203151</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>140188</v>
+        <v>142468</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>353976</v>
+        <v>358985</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>275180</v>
+        <v>275965</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>574204</v>
+        <v>573781</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>429980</v>
+        <v>428743</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>251894</v>
+        <v>251319</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>180724</v>
+        <v>184150</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>418619</v>
+        <v>418839</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>317133</v>
+        <v>317422</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>653437</v>
+        <v>653862</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>487420</v>
+        <v>485553</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>303168</v>
+        <v>302932</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>218933</v>
+        <v>215744</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>351510</v>
+        <v>352101</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>255633</v>
+        <v>256323</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>671311</v>
+        <v>670199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>488377</v>
+        <v>488410</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>372076</v>
+        <v>368938</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>277976</v>
+        <v>276437</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>421120</v>
+        <v>424955</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>311061</v>
+        <v>309018</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>775074</v>
+        <v>775866</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>567681</v>
+        <v>572016</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>46771</v>
+        <v>46124</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>48329</v>
+        <v>49226</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>35804</v>
+        <v>36435</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>48864</v>
+        <v>50304</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>92004</v>
+        <v>91155</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>105385</v>
+        <v>105255</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78138</v>
+        <v>77647</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>80817</v>
+        <v>80063</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>64441</v>
+        <v>65000</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>76328</v>
+        <v>77286</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>133961</v>
+        <v>133631</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>150646</v>
+        <v>146043</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>580081</v>
+        <v>583403</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>431462</v>
+        <v>431326</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>772071</v>
+        <v>774553</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>604021</v>
+        <v>605583</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1386478</v>
+        <v>1376408</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1055659</v>
+        <v>1059314</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>672889</v>
+        <v>671881</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>513104</v>
+        <v>512113</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>875757</v>
+        <v>879342</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>682048</v>
+        <v>680216</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1522219</v>
+        <v>1511471</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1167332</v>
+        <v>1170296</v>
       </c>
     </row>
     <row r="20">
